--- a/Northrop/Northrop.Реестр патентных документов.xlsx
+++ b/Northrop/Northrop.Реестр патентных документов.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX92"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,116 +574,6 @@
           <t>Технологические концепты, автоматически выделяемые из текста патентных документов</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Области смежного применения</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Базовые модели и алгоритмы без привязки к области применения</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Контроль и прогнозирование технического состояния</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Противодействие летательным аппаратам</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Автоматизация тактических решений</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Формирование обстановки</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Комплексная оборона</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Технологии обработки естественных языков</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Навигационные задачи</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Групповое применение</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Технологии прогнозирования и поддержки принятия решений</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Обнаружение и распознавание целей</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Управление АК и КБО</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Компьютерное зрение (распознавание образов)</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Машинное обучение</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Технологии автономных непилотируемых систем</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Безопасность самолетовождения</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Интерфейс человек-машина</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Применение АСП</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Технологии интеллектуального анализа больших данных</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Биоинспирированные алгоритмы</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Когнитивные технологии</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -793,72 +683,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -981,72 +805,6 @@
         <is>
           <t>Optics, Telecommunications</t>
         </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1177,72 +935,6 @@
           <t>Analysis of biological materials, Control, IT methods for management, Measurement, Telecommunications</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1358,72 +1050,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1549,72 +1175,6 @@
         <is>
           <t>Computer technology, Measurement</t>
         </is>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1741,72 +1301,6 @@
           <t>Handling</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1935,72 +1429,6 @@
           <t>Computer technology, Digital communication</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2126,72 +1554,6 @@
         <is>
           <t>Computer technology, Digital communication</t>
         </is>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2331,72 +1693,6 @@
           <t>Computer technology, Digital communication, Telecommunications</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2519,72 +1815,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2706,72 +1936,6 @@
         <is>
           <t>Computer technology, Digital communication</t>
         </is>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2904,72 +2068,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3094,72 +2192,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3286,72 +2318,6 @@
           <t>Control, Engines, pumps, turbines, Measurement, Transport</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3487,72 +2453,6 @@
           <t>Optics, Other special machines</t>
         </is>
       </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3684,72 +2584,6 @@
           <t>Computer technology, Digital communication</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3875,72 +2709,6 @@
         <is>
           <t>Computer technology, Control</t>
         </is>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4071,72 +2839,6 @@
           <t>Control, Transport</t>
         </is>
       </c>
-      <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4266,72 +2968,6 @@
           <t>Computer technology, Control, Transport</t>
         </is>
       </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4456,72 +3092,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4653,72 +3223,6 @@
           <t>Control, Transport</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4848,72 +3352,6 @@
           <t>Computer technology, Control</t>
         </is>
       </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5043,72 +3481,6 @@
           <t>Computer technology, Measurement</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5238,72 +3610,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5427,72 +3733,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5625,72 +3865,6 @@
           <t>IT methods for management</t>
         </is>
       </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5821,72 +3995,6 @@
           <t>Control, Transport</t>
         </is>
       </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6016,72 +4124,6 @@
         <is>
           <t>Control</t>
         </is>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6222,72 +4264,6 @@
           <t>Computer technology, Control, Measurement, Transport</t>
         </is>
       </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6422,72 +4398,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6629,72 +4539,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6834,72 +4678,6 @@
         <is>
           <t>Optics</t>
         </is>
-      </c>
-      <c r="AC33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7042,72 +4820,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7238,72 +4950,6 @@
           <t>Control, Transport</t>
         </is>
       </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7428,72 +5074,6 @@
           <t>Computer technology, Measurement</t>
         </is>
       </c>
-      <c r="AC36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7621,72 +5201,6 @@
         <is>
           <t>Digital communication, IT methods for management</t>
         </is>
-      </c>
-      <c r="AC37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -7819,72 +5333,6 @@
           <t>Control, Transport</t>
         </is>
       </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8004,72 +5452,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8195,72 +5577,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -8403,72 +5719,6 @@
           <t>Computer technology, Electrical machinery, apparatus, energy, Semiconductors</t>
         </is>
       </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8596,72 +5846,6 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="AC42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8789,72 +5973,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8996,72 +6114,6 @@
           <t>Computer technology, Control, IT methods for management, Transport</t>
         </is>
       </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9190,72 +6242,6 @@
         <is>
           <t>Computer technology, Measurement, Transport</t>
         </is>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9388,72 +6374,6 @@
         <is>
           <t>Optics</t>
         </is>
-      </c>
-      <c r="AC46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9588,72 +6508,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9781,72 +6635,6 @@
           <t>Basic communication processes, Telecommunications</t>
         </is>
       </c>
-      <c r="AC48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9964,72 +6752,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10158,72 +6880,6 @@
           <t>Computer technology, Control</t>
         </is>
       </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10348,72 +7004,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10548,72 +7138,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10743,72 +7267,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10934,72 +7392,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -11142,72 +7534,6 @@
           <t>Computer technology, Control, Measurement, Other special machines, Transport</t>
         </is>
       </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11333,72 +7659,6 @@
           <t>Computer technology, Control, Telecommunications, Transport</t>
         </is>
       </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11527,72 +7787,6 @@
           <t>Control, Digital communication, Telecommunications</t>
         </is>
       </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11713,72 +7907,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -11914,72 +8042,6 @@
           <t>Computer technology, Measurement, Transport</t>
         </is>
       </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12093,72 +8155,6 @@
           <t>Control, IT methods for management, Transport</t>
         </is>
       </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12272,72 +8268,6 @@
           <t>Control, IT methods for management, Transport</t>
         </is>
       </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12458,72 +8388,6 @@
         <is>
           <t>Control, Transport</t>
         </is>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -12647,72 +8511,6 @@
           <t>Computer technology, Measurement</t>
         </is>
       </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12833,72 +8631,6 @@
         <is>
           <t>Computer technology, Control</t>
         </is>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13032,72 +8764,6 @@
         <is>
           <t>Computer technology, Measurement</t>
         </is>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -13232,72 +8898,6 @@
           <t>Audio-visual technology, Computer technology, Control, Telecommunications, Transport</t>
         </is>
       </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13426,72 +9026,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13617,72 +9151,6 @@
           <t>Measurement</t>
         </is>
       </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13806,72 +9274,6 @@
         <is>
           <t>Measurement</t>
         </is>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -14008,72 +9410,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14206,72 +9542,6 @@
           <t>Computer technology, Measurement</t>
         </is>
       </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14392,72 +9662,6 @@
         <is>
           <t>Telecommunications</t>
         </is>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -14591,72 +9795,6 @@
           <t>Computer technology, Measurement</t>
         </is>
       </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14785,72 +9923,6 @@
           <t>Measurement</t>
         </is>
       </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14976,72 +10048,6 @@
         <is>
           <t>Audio-visual technology, Computer technology, Digital communication</t>
         </is>
-      </c>
-      <c r="AC75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -15176,72 +10182,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15375,72 +10315,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15574,72 +10448,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15762,72 +10570,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -15953,72 +10695,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -16149,72 +10825,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -16335,72 +10945,6 @@
         <is>
           <t>Other special machines</t>
         </is>
-      </c>
-      <c r="AC82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX82" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -16529,72 +11073,6 @@
           <t>Telecommunications</t>
         </is>
       </c>
-      <c r="AC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -16721,72 +11199,6 @@
           <t>Computer technology</t>
         </is>
       </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -16914,72 +11326,6 @@
           <t>Computer technology, Digital communication</t>
         </is>
       </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17101,72 +11447,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -17301,72 +11581,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -17497,72 +11711,6 @@
           <t>Optics</t>
         </is>
       </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -17683,72 +11831,6 @@
         <is>
           <t>Computer technology</t>
         </is>
-      </c>
-      <c r="AC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -17881,72 +11963,6 @@
           <t>Control, Measurement, Transport</t>
         </is>
       </c>
-      <c r="AC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -18082,72 +12098,6 @@
           <t>Computer technology, Medical technology, Telecommunications</t>
         </is>
       </c>
-      <c r="AC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -18275,72 +12225,6 @@
           <t>Computer technology, Measurement</t>
         </is>
       </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
